--- a/Diagrams/workloadExcel.xlsx
+++ b/Diagrams/workloadExcel.xlsx
@@ -43,7 +43,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>First Prototype (continue from Android research assignment</t>
+    <t>First Prototype (continue from Android research assignment)</t>
   </si>
   <si>
     <r>
@@ -93,17 +93,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">Design new screen for navigation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Design </t>
+      <t>Design new screen for navigation</t>
     </r>
   </si>
   <si>
@@ -188,7 +178,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +194,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -327,7 +329,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -358,10 +360,19 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -391,644 +402,11 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff004c7f"/>
+      <rgbColor rgb="ff0075b9"/>
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1521539</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>221615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>870426</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>255468</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1521539" y="1127760"/>
-          <a:ext cx="872888" cy="291029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="5E5E5E"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>424815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>715843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3333948" y="2473960"/>
-          <a:ext cx="609601" cy="291029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1452232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1707121</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5467548" y="3501377"/>
-          <a:ext cx="914401" cy="254890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>424815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>715843</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7601148" y="2473960"/>
-          <a:ext cx="914401" cy="291029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>221729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>512757</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Shape 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9734748" y="4266044"/>
-          <a:ext cx="609601" cy="291029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>221729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>476618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Shape 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11868348" y="4266044"/>
-          <a:ext cx="609601" cy="254890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1397735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>226414</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Shape 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24060348" y="5442050"/>
-          <a:ext cx="914401" cy="259335"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1399958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>224192</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Shape 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22231548" y="5444273"/>
-          <a:ext cx="609601" cy="254890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1142846</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1397735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20402748" y="5187161"/>
-          <a:ext cx="609601" cy="254890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>185589</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>476618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18573948" y="4229904"/>
-          <a:ext cx="609601" cy="291030"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>203659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>494687</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17659548" y="4247974"/>
-          <a:ext cx="304801" cy="291029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>203659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>494687</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16135548" y="4247974"/>
-          <a:ext cx="609601" cy="291029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>221729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>512757</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14001948" y="4266044"/>
-          <a:ext cx="914401" cy="291029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>221729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>298648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>476618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Shape 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11258748" y="4266044"/>
-          <a:ext cx="304801" cy="254890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2525,7 +1903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="69.75" customHeight="1">
+    <row r="4" ht="44.05" customHeight="1">
       <c r="A4" t="s" s="9">
         <v>10</v>
       </c>
@@ -2609,15 +1987,15 @@
       <c r="CA4" s="11"/>
       <c r="CB4" s="11"/>
     </row>
-    <row r="5" ht="137.05" customHeight="1">
+    <row r="5" ht="92.05" customHeight="1">
       <c r="A5" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2630,9 +2008,9 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -2691,7 +2069,7 @@
       <c r="BY5" s="11"/>
       <c r="BZ5" s="11"/>
       <c r="CA5" s="11"/>
-      <c r="CB5" s="12">
+      <c r="CB5" s="15">
         <v>30</v>
       </c>
     </row>
@@ -2699,7 +2077,7 @@
       <c r="A6" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -2709,9 +2087,9 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -2777,15 +2155,15 @@
       <c r="BY6" s="11"/>
       <c r="BZ6" s="11"/>
       <c r="CA6" s="11"/>
-      <c r="CB6" s="12">
+      <c r="CB6" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="112.65" customHeight="1">
+    <row r="7" ht="68.05" customHeight="1">
       <c r="A7" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -2809,37 +2187,37 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
+      <c r="AE7" s="14"/>
       <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
       <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
       <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
       <c r="AW7" s="11"/>
       <c r="AX7" s="11"/>
       <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
+      <c r="AZ7" s="14"/>
       <c r="BA7" s="11"/>
       <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
       <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
       <c r="BG7" s="11"/>
@@ -2863,7 +2241,7 @@
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
       <c r="CA7" s="11"/>
-      <c r="CB7" s="12">
+      <c r="CB7" s="15">
         <v>78</v>
       </c>
     </row>
@@ -2871,7 +2249,7 @@
       <c r="A8" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -2930,8 +2308,8 @@
       <c r="BF8" s="11"/>
       <c r="BG8" s="11"/>
       <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
       <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
@@ -2949,7 +2327,7 @@
       <c r="BY8" s="11"/>
       <c r="BZ8" s="11"/>
       <c r="CA8" s="11"/>
-      <c r="CB8" s="12">
+      <c r="CB8" s="15">
         <v>12</v>
       </c>
     </row>
@@ -2957,7 +2335,7 @@
       <c r="A9" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3022,26 +2400,26 @@
       <c r="BL9" s="11"/>
       <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
-      <c r="BO9" s="11"/>
-      <c r="BP9" s="11"/>
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
       <c r="BQ9" s="11"/>
       <c r="BR9" s="11"/>
       <c r="BS9" s="11"/>
       <c r="BT9" s="11"/>
-      <c r="BU9" s="11"/>
-      <c r="BV9" s="11"/>
-      <c r="BW9" s="11"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="14"/>
       <c r="BX9" s="11"/>
       <c r="BY9" s="11"/>
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
-      <c r="CB9" s="12">
+      <c r="CB9" s="15">
         <v>30</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3119,7 +2497,7 @@
       <c r="BY10" s="11"/>
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
-      <c r="CB10" s="12">
+      <c r="CB10" s="15">
         <v>168</v>
       </c>
     </row>
@@ -3143,6 +2521,5 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>